--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N2">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q2">
-        <v>629.9369680538209</v>
+        <v>1981.536465524</v>
       </c>
       <c r="R2">
-        <v>5669.432712484389</v>
+        <v>17833.828189716</v>
       </c>
       <c r="S2">
-        <v>0.008335586782312462</v>
+        <v>0.0261260321318918</v>
       </c>
       <c r="T2">
-        <v>0.008335586782312464</v>
+        <v>0.02612603213189181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q3">
-        <v>865.3596789524835</v>
+        <v>1558.65051055</v>
       </c>
       <c r="R3">
-        <v>7788.237110572351</v>
+        <v>14027.85459495</v>
       </c>
       <c r="S3">
-        <v>0.0114507975680611</v>
+        <v>0.02055039310631635</v>
       </c>
       <c r="T3">
-        <v>0.0114507975680611</v>
+        <v>0.02055039310631635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N4">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q4">
-        <v>821.9886498591662</v>
+        <v>1157.884051328667</v>
       </c>
       <c r="R4">
-        <v>7397.897848732496</v>
+        <v>10420.956461958</v>
       </c>
       <c r="S4">
-        <v>0.01087689415362511</v>
+        <v>0.01526639375875337</v>
       </c>
       <c r="T4">
-        <v>0.01087689415362511</v>
+        <v>0.01526639375875337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N5">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O5">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P5">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q5">
-        <v>351.5188612001259</v>
+        <v>304.3215397086666</v>
       </c>
       <c r="R5">
-        <v>3163.669750801133</v>
+        <v>2738.893857378</v>
       </c>
       <c r="S5">
-        <v>0.004651443115341904</v>
+        <v>0.004012398693229658</v>
       </c>
       <c r="T5">
-        <v>0.004651443115341904</v>
+        <v>0.004012398693229659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N6">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q6">
-        <v>958.9822841517945</v>
+        <v>2059.301648712</v>
       </c>
       <c r="R6">
-        <v>8630.840557366149</v>
+        <v>18533.714838408</v>
       </c>
       <c r="S6">
-        <v>0.0126896506438475</v>
+        <v>0.02715134542289646</v>
       </c>
       <c r="T6">
-        <v>0.0126896506438475</v>
+        <v>0.02715134542289646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N7">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q7">
-        <v>1186.687673100674</v>
+        <v>1651.065798407666</v>
       </c>
       <c r="R7">
-        <v>10680.18905790606</v>
+        <v>14859.592185669</v>
       </c>
       <c r="S7">
-        <v>0.01570274263025308</v>
+        <v>0.0217688641372842</v>
       </c>
       <c r="T7">
-        <v>0.01570274263025308</v>
+        <v>0.0217688641372842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N8">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q8">
-        <v>235.428799578003</v>
+        <v>411.161527431996</v>
       </c>
       <c r="R8">
-        <v>2118.859196202027</v>
+        <v>3700.453746887964</v>
       </c>
       <c r="S8">
-        <v>0.003115291353674648</v>
+        <v>0.005421055561672648</v>
       </c>
       <c r="T8">
-        <v>0.003115291353674649</v>
+        <v>0.005421055561672648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q9">
         <v>323.4142473784501</v>
@@ -1013,10 +1013,10 @@
         <v>2910.728226406051</v>
       </c>
       <c r="S9">
-        <v>0.00427955122873343</v>
+        <v>0.004264130974085601</v>
       </c>
       <c r="T9">
-        <v>0.004279551228733432</v>
+        <v>0.0042641309740856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N10">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q10">
-        <v>307.205023545392</v>
+        <v>240.256681326098</v>
       </c>
       <c r="R10">
-        <v>2764.845211908528</v>
+        <v>2162.310131934882</v>
       </c>
       <c r="S10">
-        <v>0.004065064067657913</v>
+        <v>0.003167720546877466</v>
       </c>
       <c r="T10">
-        <v>0.004065064067657914</v>
+        <v>0.003167720546877466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N11">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O11">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P11">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q11">
-        <v>131.374514782091</v>
+        <v>63.14560003011801</v>
       </c>
       <c r="R11">
-        <v>1182.370633038819</v>
+        <v>568.3104002710621</v>
       </c>
       <c r="S11">
-        <v>0.001738401974301576</v>
+        <v>0.0008325579690698202</v>
       </c>
       <c r="T11">
-        <v>0.001738401974301576</v>
+        <v>0.0008325579690698202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N12">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q12">
-        <v>358.40418871105</v>
+        <v>427.2975168810481</v>
       </c>
       <c r="R12">
-        <v>3225.637698399451</v>
+        <v>3845.677651929433</v>
       </c>
       <c r="S12">
-        <v>0.004742552619788463</v>
+        <v>0.005633804297898565</v>
       </c>
       <c r="T12">
-        <v>0.004742552619788464</v>
+        <v>0.005633804297898565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N13">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q13">
-        <v>443.5054116846741</v>
+        <v>342.590079655439</v>
       </c>
       <c r="R13">
-        <v>3991.548705162067</v>
+        <v>3083.310716898951</v>
       </c>
       <c r="S13">
-        <v>0.005868647237745475</v>
+        <v>0.004516959230815107</v>
       </c>
       <c r="T13">
-        <v>0.005868647237745476</v>
+        <v>0.004516959230815107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N14">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q14">
-        <v>2925.820249409854</v>
+        <v>4995.911525089217</v>
       </c>
       <c r="R14">
-        <v>26332.38224468868</v>
+        <v>44963.20372580295</v>
       </c>
       <c r="S14">
-        <v>0.03871566495573445</v>
+        <v>0.06586976687206901</v>
       </c>
       <c r="T14">
-        <v>0.03871566495573446</v>
+        <v>0.065869766872069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q15">
-        <v>4019.270181148767</v>
+        <v>3929.718268991718</v>
       </c>
       <c r="R15">
-        <v>36173.43163033891</v>
+        <v>35367.46442092545</v>
       </c>
       <c r="S15">
-        <v>0.05318464718784979</v>
+        <v>0.05181229190138079</v>
       </c>
       <c r="T15">
-        <v>0.05318464718784981</v>
+        <v>0.05181229190138079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N16">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q16">
-        <v>3817.828066152701</v>
+        <v>2919.293375315287</v>
       </c>
       <c r="R16">
-        <v>34360.4525953743</v>
+        <v>26273.64037783758</v>
       </c>
       <c r="S16">
-        <v>0.05051908171651391</v>
+        <v>0.03849010798079724</v>
       </c>
       <c r="T16">
-        <v>0.05051908171651392</v>
+        <v>0.03849010798079724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N17">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O17">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P17">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q17">
-        <v>1632.672877298016</v>
+        <v>767.2649552585332</v>
       </c>
       <c r="R17">
-        <v>14694.05589568214</v>
+        <v>6905.384597326798</v>
       </c>
       <c r="S17">
-        <v>0.02160420350926704</v>
+        <v>0.01011618469986526</v>
       </c>
       <c r="T17">
-        <v>0.02160420350926704</v>
+        <v>0.01011618469986526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N18">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q18">
-        <v>4454.111963717789</v>
+        <v>5191.975529814393</v>
       </c>
       <c r="R18">
-        <v>40087.0076734601</v>
+        <v>46727.77976832954</v>
       </c>
       <c r="S18">
-        <v>0.05893865369802153</v>
+        <v>0.06845481871263796</v>
       </c>
       <c r="T18">
-        <v>0.05893865369802154</v>
+        <v>0.06845481871263796</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N19">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q19">
-        <v>5511.717838071643</v>
+        <v>4162.718574429176</v>
       </c>
       <c r="R19">
-        <v>49605.46054264479</v>
+        <v>37464.46716986258</v>
       </c>
       <c r="S19">
-        <v>0.0729333325218349</v>
+        <v>0.05488433905898375</v>
       </c>
       <c r="T19">
-        <v>0.07293333252183491</v>
+        <v>0.05488433905898375</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N20">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q20">
-        <v>188.70613974358</v>
+        <v>236.458762705132</v>
       </c>
       <c r="R20">
-        <v>1698.35525769222</v>
+        <v>2128.128864346188</v>
       </c>
       <c r="S20">
-        <v>0.002497037773552925</v>
+        <v>0.003117645998337967</v>
       </c>
       <c r="T20">
-        <v>0.002497037773552927</v>
+        <v>0.003117645998337967</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q21">
-        <v>259.2301972836667</v>
+        <v>185.99535139865</v>
       </c>
       <c r="R21">
-        <v>2333.071775553</v>
+        <v>1673.95816258785</v>
       </c>
       <c r="S21">
-        <v>0.003430241302919318</v>
+        <v>0.002452299320032263</v>
       </c>
       <c r="T21">
-        <v>0.00343024130291932</v>
+        <v>0.002452299320032263</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N22">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q22">
-        <v>246.2378188522311</v>
+        <v>138.1714820275993</v>
       </c>
       <c r="R22">
-        <v>2216.14036967008</v>
+        <v>1243.543338248394</v>
       </c>
       <c r="S22">
-        <v>0.003258320772110555</v>
+        <v>0.001821754301256107</v>
       </c>
       <c r="T22">
-        <v>0.003258320772110556</v>
+        <v>0.001821754301256108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N23">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O23">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P23">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q23">
-        <v>105.3022297597045</v>
+        <v>36.31499898993933</v>
       </c>
       <c r="R23">
-        <v>947.72006783734</v>
+        <v>326.834990909454</v>
       </c>
       <c r="S23">
-        <v>0.001393402703836915</v>
+        <v>0.0004788036188018778</v>
       </c>
       <c r="T23">
-        <v>0.001393402703836915</v>
+        <v>0.0004788036188018779</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N24">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q24">
-        <v>287.2761150752223</v>
+        <v>245.738561143416</v>
       </c>
       <c r="R24">
-        <v>2585.485035677</v>
+        <v>2211.647050290744</v>
       </c>
       <c r="S24">
-        <v>0.003801356499354556</v>
+        <v>0.003239997676641286</v>
       </c>
       <c r="T24">
-        <v>0.003801356499354558</v>
+        <v>0.003239997676641287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N25">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q25">
-        <v>355.4883444354178</v>
+        <v>197.0233617340963</v>
       </c>
       <c r="R25">
-        <v>3199.39509991876</v>
+        <v>1773.210255606867</v>
       </c>
       <c r="S25">
-        <v>0.004703968961048237</v>
+        <v>0.002597700707989317</v>
       </c>
       <c r="T25">
-        <v>0.004703968961048238</v>
+        <v>0.002597700707989317</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N26">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q26">
-        <v>2761.672003843624</v>
+        <v>6352.571764504518</v>
       </c>
       <c r="R26">
-        <v>24855.04803459262</v>
+        <v>57173.14588054067</v>
       </c>
       <c r="S26">
-        <v>0.03654358740596166</v>
+        <v>0.08375697188883424</v>
       </c>
       <c r="T26">
-        <v>0.03654358740596166</v>
+        <v>0.08375697188883426</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q27">
-        <v>3793.775758234267</v>
+        <v>4996.849362260984</v>
       </c>
       <c r="R27">
-        <v>34143.98182410841</v>
+        <v>44971.64426034885</v>
       </c>
       <c r="S27">
-        <v>0.05020081161944625</v>
+        <v>0.06588213200615074</v>
       </c>
       <c r="T27">
-        <v>0.05020081161944626</v>
+        <v>0.06588213200615074</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N28">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q28">
-        <v>3603.635215768647</v>
+        <v>3712.039449698181</v>
       </c>
       <c r="R28">
-        <v>32432.71694191782</v>
+        <v>33408.35504728364</v>
       </c>
       <c r="S28">
-        <v>0.04768479323517081</v>
+        <v>0.04894225447020421</v>
       </c>
       <c r="T28">
-        <v>0.04768479323517082</v>
+        <v>0.04894225447020422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N29">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O29">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P29">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q29">
-        <v>1541.074499562373</v>
+        <v>975.6188968102549</v>
       </c>
       <c r="R29">
-        <v>13869.67049606135</v>
+        <v>8780.570071292294</v>
       </c>
       <c r="S29">
-        <v>0.02039213584939721</v>
+        <v>0.01286327609409156</v>
       </c>
       <c r="T29">
-        <v>0.02039213584939721</v>
+        <v>0.01286327609409156</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N30">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q30">
-        <v>4204.221470770623</v>
+        <v>6601.877752850776</v>
       </c>
       <c r="R30">
-        <v>37837.9932369356</v>
+        <v>59416.89977565699</v>
       </c>
       <c r="S30">
-        <v>0.05563199922992246</v>
+        <v>0.08704400514587046</v>
       </c>
       <c r="T30">
-        <v>0.05563199922992247</v>
+        <v>0.08704400514587048</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N31">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q31">
-        <v>5202.492138591971</v>
+        <v>5293.121855080298</v>
       </c>
       <c r="R31">
-        <v>46822.42924732773</v>
+        <v>47638.09669572268</v>
       </c>
       <c r="S31">
-        <v>0.06884153003356774</v>
+        <v>0.06978840615344289</v>
       </c>
       <c r="T31">
-        <v>0.06884153003356774</v>
+        <v>0.06978840615344291</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N32">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q32">
-        <v>3146.451787157742</v>
+        <v>3271.797131637862</v>
       </c>
       <c r="R32">
-        <v>28318.06608441968</v>
+        <v>29446.17418474076</v>
       </c>
       <c r="S32">
-        <v>0.04163515281416957</v>
+        <v>0.04313777640604662</v>
       </c>
       <c r="T32">
-        <v>0.04163515281416959</v>
+        <v>0.04313777640604663</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q33">
-        <v>4322.357071353301</v>
+        <v>2573.552573151783</v>
       </c>
       <c r="R33">
-        <v>38901.21364217971</v>
+        <v>23161.97315836605</v>
       </c>
       <c r="S33">
-        <v>0.05719521841005697</v>
+        <v>0.03393160731033843</v>
       </c>
       <c r="T33">
-        <v>0.05719521841005699</v>
+        <v>0.03393160731033843</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N34">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q34">
-        <v>4105.724520920288</v>
+        <v>1911.830432504586</v>
       </c>
       <c r="R34">
-        <v>36951.5206882826</v>
+        <v>17206.47389254128</v>
       </c>
       <c r="S34">
-        <v>0.05432864680752519</v>
+        <v>0.02520697659587858</v>
       </c>
       <c r="T34">
-        <v>0.0543286468075252</v>
+        <v>0.02520697659587859</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N35">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O35">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P35">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q35">
-        <v>1755.790190342174</v>
+        <v>502.4779296459402</v>
       </c>
       <c r="R35">
-        <v>15802.11171307957</v>
+        <v>4522.301366813462</v>
       </c>
       <c r="S35">
-        <v>0.02323334277133529</v>
+        <v>0.006625038077219932</v>
       </c>
       <c r="T35">
-        <v>0.02323334277133529</v>
+        <v>0.006625038077219934</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N36">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q36">
-        <v>4789.9895939497</v>
+        <v>3400.198454410648</v>
       </c>
       <c r="R36">
-        <v>43109.90634554731</v>
+        <v>30601.78608969583</v>
       </c>
       <c r="S36">
-        <v>0.06338312556904901</v>
+        <v>0.04483071375184113</v>
       </c>
       <c r="T36">
-        <v>0.06338312556904904</v>
+        <v>0.04483071375184113</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N37">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q37">
-        <v>5927.347876346037</v>
+        <v>2726.143292017127</v>
       </c>
       <c r="R37">
-        <v>53346.13088711433</v>
+        <v>24535.28962815415</v>
       </c>
       <c r="S37">
-        <v>0.07843312127701087</v>
+        <v>0.03594347542049719</v>
       </c>
       <c r="T37">
-        <v>0.07843312127701088</v>
+        <v>0.0359434754204972</v>
       </c>
     </row>
   </sheetData>
